--- a/production/eb07/eb07-entries-s.xlsx
+++ b/production/eb07/eb07-entries-s.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eb-corpus\digital-edition\xml\eb07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp-corpus1\production\eb07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3DD04F-81CA-4517-8565-D6563C7CE86F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="345" windowWidth="21930" windowHeight="16740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="345" windowWidth="21930" windowHeight="16740" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="eb07-s01" sheetId="1" r:id="rId1"/>
@@ -34,8 +33,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Entry_Stats" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Entry_Stats" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s01\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -46,7 +45,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Entry_Stats1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" name="Entry_Stats1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s02\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -57,7 +56,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Entry_Stats2" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="Entry_Stats2" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s03\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -68,7 +67,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Entry_Stats3" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="Entry_Stats3" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s04\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="2571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="2570">
   <si>
     <t>eb07-19-s01-0594-01.xml</t>
   </si>
@@ -6211,9 +6210,6 @@
     <t>eb07-s04</t>
   </si>
   <si>
-    <t>eb07-20-s04-0451-01.xml</t>
-  </si>
-  <si>
     <t>SOCRATES CONTD</t>
   </si>
   <si>
@@ -7747,21 +7743,9 @@
     <t>STEAM</t>
   </si>
   <si>
-    <t>eb07-20-s04-0570-02.xml</t>
-  </si>
-  <si>
     <t>SECTION I</t>
   </si>
   <si>
-    <t>eb07-20-s04-0577-01.xml</t>
-  </si>
-  <si>
-    <t>eb07-20-s04-0592-01.xml</t>
-  </si>
-  <si>
-    <t>eb07-20-s04-0600-01.xml</t>
-  </si>
-  <si>
     <t>SECTION IV</t>
   </si>
   <si>
@@ -7789,19 +7773,31 @@
     <t>STEAM, TO PRACTICAL AND ECONOMICAL PURPOS</t>
   </si>
   <si>
-    <t>table with multiple references to same note is corrected. Other tables need attention.</t>
-  </si>
-  <si>
-    <t>check the originals for "Steam" to see what is part of the same article, and what is a new article.</t>
-  </si>
-  <si>
     <t>fix tables</t>
+  </si>
+  <si>
+    <t>move partial entry to s03 and delete file.</t>
+  </si>
+  <si>
+    <t>added to main entry; file deleted; table created on p. 574. Table on 575 needs analysis and correction.</t>
+  </si>
+  <si>
+    <t>SECT II</t>
+  </si>
+  <si>
+    <t>SECT III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table with multiple references to same note is corrected. Other tables need attention. Tables with uncoded notes are corrected on p. 590, 591. Text corrected on 591. Repaired tables on 592, 594, 597, 598, 600, 601. Math symbols need correcting on 594. </t>
+  </si>
+  <si>
+    <t>STEAM article sections moved into main article.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -7891,7 +7887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7906,6 +7902,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7925,19 +7927,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats_1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8202,7 +8204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14720,10 +14722,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
@@ -14804,7 +14806,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>2570</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -19814,12 +19816,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22724,11 +22726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="I259" sqref="I259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22739,7 +22741,7 @@
     <col min="4" max="4" width="7.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="37" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -22771,15 +22773,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2042</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2043</v>
       </c>
       <c r="D2" s="8">
         <v>451</v>
@@ -22789,6 +22788,9 @@
       </c>
       <c r="F2" s="5">
         <v>43595</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>2564</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -22796,10 +22798,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C3" t="s">
         <v>2044</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2045</v>
       </c>
       <c r="D3" s="8">
         <v>470</v>
@@ -22810,10 +22812,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C4" t="s">
         <v>2046</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2047</v>
       </c>
       <c r="D4" s="8">
         <v>470</v>
@@ -22824,10 +22826,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C5" t="s">
         <v>2048</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2049</v>
       </c>
       <c r="D5" s="8">
         <v>470</v>
@@ -22838,10 +22840,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C6" t="s">
         <v>2050</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2051</v>
       </c>
       <c r="D6" s="8">
         <v>470</v>
@@ -22852,10 +22854,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C7" t="s">
         <v>2052</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2053</v>
       </c>
       <c r="D7" s="8">
         <v>471</v>
@@ -22866,10 +22868,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C8" t="s">
         <v>2054</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2055</v>
       </c>
       <c r="D8" s="8">
         <v>471</v>
@@ -22880,10 +22882,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C9" t="s">
         <v>2056</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2057</v>
       </c>
       <c r="D9" s="8">
         <v>471</v>
@@ -22894,10 +22896,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C10" t="s">
         <v>2058</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2059</v>
       </c>
       <c r="D10" s="8">
         <v>471</v>
@@ -22908,10 +22910,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C11" t="s">
         <v>2060</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2061</v>
       </c>
       <c r="D11" s="8">
         <v>471</v>
@@ -22922,10 +22924,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C12" t="s">
         <v>2062</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2063</v>
       </c>
       <c r="D12" s="8">
         <v>471</v>
@@ -22936,10 +22938,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C13" t="s">
         <v>2064</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2065</v>
       </c>
       <c r="D13" s="8">
         <v>471</v>
@@ -22950,10 +22952,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C14" t="s">
         <v>2066</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2067</v>
       </c>
       <c r="D14" s="8">
         <v>471</v>
@@ -22964,10 +22966,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C15" t="s">
         <v>2068</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2069</v>
       </c>
       <c r="D15" s="8">
         <v>471</v>
@@ -22978,10 +22980,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C16" t="s">
         <v>2070</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2071</v>
       </c>
       <c r="D16" s="8">
         <v>471</v>
@@ -22992,10 +22994,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C17" t="s">
         <v>2072</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2073</v>
       </c>
       <c r="D17" s="8">
         <v>471</v>
@@ -23006,10 +23008,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C18" t="s">
         <v>2074</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2075</v>
       </c>
       <c r="D18" s="8">
         <v>471</v>
@@ -23020,10 +23022,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C19" t="s">
         <v>2076</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2077</v>
       </c>
       <c r="D19" s="8">
         <v>471</v>
@@ -23034,10 +23036,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C20" t="s">
         <v>2078</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2079</v>
       </c>
       <c r="D20" s="8">
         <v>471</v>
@@ -23048,10 +23050,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C21" t="s">
         <v>2080</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2081</v>
       </c>
       <c r="D21" s="8">
         <v>472</v>
@@ -23062,10 +23064,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C22" t="s">
         <v>2082</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2083</v>
       </c>
       <c r="D22" s="8">
         <v>472</v>
@@ -23076,10 +23078,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C23" t="s">
         <v>2084</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2085</v>
       </c>
       <c r="D23" s="8">
         <v>472</v>
@@ -23090,10 +23092,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C24" t="s">
         <v>2086</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2087</v>
       </c>
       <c r="D24" s="8">
         <v>472</v>
@@ -23104,10 +23106,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C25" t="s">
         <v>2088</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2089</v>
       </c>
       <c r="D25" s="8">
         <v>472</v>
@@ -23118,10 +23120,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C26" t="s">
         <v>2090</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2091</v>
       </c>
       <c r="D26" s="8">
         <v>472</v>
@@ -23132,10 +23134,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C27" t="s">
         <v>2092</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2093</v>
       </c>
       <c r="D27" s="8">
         <v>472</v>
@@ -23146,10 +23148,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C28" t="s">
         <v>2094</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2095</v>
       </c>
       <c r="D28" s="8">
         <v>472</v>
@@ -23160,10 +23162,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C29" t="s">
         <v>2096</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2097</v>
       </c>
       <c r="D29" s="8">
         <v>472</v>
@@ -23174,10 +23176,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C30" t="s">
         <v>2098</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2099</v>
       </c>
       <c r="D30" s="8">
         <v>472</v>
@@ -23188,10 +23190,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C31" t="s">
         <v>2100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2101</v>
       </c>
       <c r="D31" s="8">
         <v>472</v>
@@ -23202,10 +23204,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C32" t="s">
         <v>2102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2103</v>
       </c>
       <c r="D32" s="8">
         <v>472</v>
@@ -23216,10 +23218,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C33" t="s">
         <v>2104</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2105</v>
       </c>
       <c r="D33" s="8">
         <v>472</v>
@@ -23230,10 +23232,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C34" t="s">
         <v>2106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2107</v>
       </c>
       <c r="D34" s="8">
         <v>472</v>
@@ -23244,10 +23246,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C35" t="s">
         <v>2108</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2109</v>
       </c>
       <c r="D35" s="8">
         <v>472</v>
@@ -23258,10 +23260,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C36" t="s">
         <v>2110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2111</v>
       </c>
       <c r="D36" s="8">
         <v>473</v>
@@ -23272,10 +23274,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C37" t="s">
         <v>2112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2113</v>
       </c>
       <c r="D37" s="8">
         <v>473</v>
@@ -23286,10 +23288,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C38" t="s">
         <v>2114</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2115</v>
       </c>
       <c r="D38" s="8">
         <v>473</v>
@@ -23300,10 +23302,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C39" t="s">
         <v>2116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2117</v>
       </c>
       <c r="D39" s="8">
         <v>473</v>
@@ -23314,10 +23316,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C40" t="s">
         <v>2118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2119</v>
       </c>
       <c r="D40" s="8">
         <v>473</v>
@@ -23328,10 +23330,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C41" t="s">
         <v>2120</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2121</v>
       </c>
       <c r="D41" s="8">
         <v>473</v>
@@ -23342,10 +23344,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C42" t="s">
         <v>2122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2123</v>
       </c>
       <c r="D42" s="8">
         <v>473</v>
@@ -23356,10 +23358,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C43" t="s">
         <v>2124</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2125</v>
       </c>
       <c r="D43" s="8">
         <v>473</v>
@@ -23373,10 +23375,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C44" t="s">
         <v>2126</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2127</v>
       </c>
       <c r="D44" s="8">
         <v>474</v>
@@ -23387,10 +23389,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C45" t="s">
         <v>2128</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2129</v>
       </c>
       <c r="D45" s="8">
         <v>474</v>
@@ -23401,10 +23403,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C46" t="s">
         <v>2130</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2131</v>
       </c>
       <c r="D46" s="8">
         <v>474</v>
@@ -23415,10 +23417,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C47" t="s">
         <v>2132</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2133</v>
       </c>
       <c r="D47" s="8">
         <v>474</v>
@@ -23429,10 +23431,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C48" t="s">
         <v>2134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2135</v>
       </c>
       <c r="D48" s="8">
         <v>474</v>
@@ -23443,10 +23445,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C49" t="s">
         <v>2136</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2137</v>
       </c>
       <c r="D49" s="8">
         <v>474</v>
@@ -23457,10 +23459,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C50" t="s">
         <v>2138</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2139</v>
       </c>
       <c r="D50" s="8">
         <v>474</v>
@@ -23471,10 +23473,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C51" t="s">
         <v>2140</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2141</v>
       </c>
       <c r="D51" s="8">
         <v>474</v>
@@ -23485,10 +23487,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C52" t="s">
         <v>2142</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2143</v>
       </c>
       <c r="D52" s="8">
         <v>474</v>
@@ -23499,10 +23501,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C53" t="s">
         <v>2144</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2145</v>
       </c>
       <c r="D53" s="8">
         <v>474</v>
@@ -23513,10 +23515,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C54" t="s">
         <v>2146</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2147</v>
       </c>
       <c r="D54" s="8">
         <v>476</v>
@@ -23527,10 +23529,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C55" t="s">
         <v>2148</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2149</v>
       </c>
       <c r="D55" s="8">
         <v>476</v>
@@ -23541,10 +23543,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C56" t="s">
         <v>2150</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2151</v>
       </c>
       <c r="D56" s="8">
         <v>476</v>
@@ -23555,10 +23557,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C57" t="s">
         <v>2152</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2153</v>
       </c>
       <c r="D57" s="8">
         <v>476</v>
@@ -23569,10 +23571,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C58" t="s">
         <v>2154</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2155</v>
       </c>
       <c r="D58" s="8">
         <v>476</v>
@@ -23583,10 +23585,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C59" t="s">
         <v>2156</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2157</v>
       </c>
       <c r="D59" s="8">
         <v>478</v>
@@ -23597,10 +23599,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C60" t="s">
         <v>2158</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2159</v>
       </c>
       <c r="D60" s="8">
         <v>478</v>
@@ -23611,10 +23613,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C61" t="s">
         <v>2160</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2161</v>
       </c>
       <c r="D61" s="8">
         <v>478</v>
@@ -23625,10 +23627,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C62" t="s">
         <v>2162</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2163</v>
       </c>
       <c r="D62" s="8">
         <v>478</v>
@@ -23639,10 +23641,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C63" t="s">
         <v>2164</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2165</v>
       </c>
       <c r="D63" s="8">
         <v>478</v>
@@ -23653,10 +23655,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C64" t="s">
         <v>2166</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2167</v>
       </c>
       <c r="D64" s="8">
         <v>478</v>
@@ -23667,10 +23669,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C65" t="s">
         <v>2168</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2169</v>
       </c>
       <c r="D65" s="8">
         <v>478</v>
@@ -23681,10 +23683,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C66" t="s">
         <v>2170</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2171</v>
       </c>
       <c r="D66" s="8">
         <v>478</v>
@@ -23695,10 +23697,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C67" t="s">
         <v>2172</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2173</v>
       </c>
       <c r="D67" s="8">
         <v>478</v>
@@ -23709,10 +23711,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C68" t="s">
         <v>2174</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2175</v>
       </c>
       <c r="D68" s="8">
         <v>478</v>
@@ -23723,10 +23725,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C69" t="s">
         <v>2176</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2177</v>
       </c>
       <c r="D69" s="8">
         <v>478</v>
@@ -23737,10 +23739,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C70" t="s">
         <v>2178</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2179</v>
       </c>
       <c r="D70" s="8">
         <v>478</v>
@@ -23751,10 +23753,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C71" t="s">
         <v>2180</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2181</v>
       </c>
       <c r="D71" s="8">
         <v>478</v>
@@ -23765,10 +23767,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C72" t="s">
         <v>2182</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2183</v>
       </c>
       <c r="D72" s="8">
         <v>478</v>
@@ -23779,10 +23781,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C73" t="s">
         <v>2184</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2185</v>
       </c>
       <c r="D73" s="8">
         <v>478</v>
@@ -23793,10 +23795,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C74" t="s">
         <v>2186</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2187</v>
       </c>
       <c r="D74" s="8">
         <v>478</v>
@@ -23807,10 +23809,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C75" t="s">
         <v>2188</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2189</v>
       </c>
       <c r="D75" s="8">
         <v>479</v>
@@ -23821,10 +23823,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C76" t="s">
         <v>2190</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2191</v>
       </c>
       <c r="D76" s="8">
         <v>479</v>
@@ -23835,10 +23837,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C77" t="s">
         <v>2192</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2193</v>
       </c>
       <c r="D77" s="8">
         <v>479</v>
@@ -23849,10 +23851,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C78" t="s">
         <v>2194</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2195</v>
       </c>
       <c r="D78" s="8">
         <v>479</v>
@@ -23863,10 +23865,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C79" t="s">
         <v>2196</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2197</v>
       </c>
       <c r="D79" s="8">
         <v>479</v>
@@ -23877,10 +23879,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C80" t="s">
         <v>2198</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2199</v>
       </c>
       <c r="D80" s="8">
         <v>479</v>
@@ -23891,10 +23893,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C81" t="s">
         <v>2200</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2201</v>
       </c>
       <c r="D81" s="8">
         <v>479</v>
@@ -23905,10 +23907,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C82" t="s">
         <v>2202</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2203</v>
       </c>
       <c r="D82" s="8">
         <v>479</v>
@@ -23919,10 +23921,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C83" t="s">
         <v>2204</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2205</v>
       </c>
       <c r="D83" s="8">
         <v>479</v>
@@ -23933,10 +23935,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C84" t="s">
         <v>2206</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2207</v>
       </c>
       <c r="D84" s="8">
         <v>479</v>
@@ -23947,10 +23949,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C85" t="s">
         <v>2208</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2209</v>
       </c>
       <c r="D85" s="8">
         <v>479</v>
@@ -23961,10 +23963,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C86" t="s">
         <v>2210</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2211</v>
       </c>
       <c r="D86" s="8">
         <v>479</v>
@@ -23975,10 +23977,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C87" t="s">
         <v>2212</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2213</v>
       </c>
       <c r="D87" s="8">
         <v>479</v>
@@ -23989,10 +23991,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C88" t="s">
         <v>2214</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2215</v>
       </c>
       <c r="D88" s="8">
         <v>479</v>
@@ -24003,10 +24005,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C89" t="s">
         <v>2216</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2217</v>
       </c>
       <c r="D89" s="8">
         <v>480</v>
@@ -24017,10 +24019,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C90" t="s">
         <v>2218</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2219</v>
       </c>
       <c r="D90" s="8">
         <v>480</v>
@@ -24031,10 +24033,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C91" t="s">
         <v>2220</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2221</v>
       </c>
       <c r="D91" s="8">
         <v>480</v>
@@ -24045,10 +24047,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C92" t="s">
         <v>2222</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2223</v>
       </c>
       <c r="D92" s="8">
         <v>480</v>
@@ -24059,10 +24061,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C93" t="s">
         <v>2224</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2225</v>
       </c>
       <c r="D93" s="8">
         <v>480</v>
@@ -24073,10 +24075,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C94" t="s">
         <v>2226</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2227</v>
       </c>
       <c r="D94" s="8">
         <v>480</v>
@@ -24087,10 +24089,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C95" t="s">
         <v>2228</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2229</v>
       </c>
       <c r="D95" s="8">
         <v>480</v>
@@ -24104,10 +24106,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C96" t="s">
         <v>2230</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2231</v>
       </c>
       <c r="D96" s="8">
         <v>481</v>
@@ -24118,10 +24120,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C97" t="s">
         <v>2232</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2233</v>
       </c>
       <c r="D97" s="8">
         <v>481</v>
@@ -24132,10 +24134,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C98" t="s">
         <v>2234</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2235</v>
       </c>
       <c r="D98" s="8">
         <v>481</v>
@@ -24146,10 +24148,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C99" t="s">
         <v>2236</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2237</v>
       </c>
       <c r="D99" s="8">
         <v>481</v>
@@ -24160,10 +24162,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C100" t="s">
         <v>2238</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2239</v>
       </c>
       <c r="D100" s="8">
         <v>481</v>
@@ -24174,10 +24176,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C101" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D101" s="8">
         <v>481</v>
@@ -24188,10 +24190,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C102" t="s">
         <v>2241</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2242</v>
       </c>
       <c r="D102" s="8">
         <v>481</v>
@@ -24202,10 +24204,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C103" t="s">
         <v>2243</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2244</v>
       </c>
       <c r="D103" s="8">
         <v>481</v>
@@ -24216,10 +24218,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C104" t="s">
         <v>2245</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2246</v>
       </c>
       <c r="D104" s="8">
         <v>481</v>
@@ -24230,10 +24232,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C105" t="s">
         <v>2247</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2248</v>
       </c>
       <c r="D105" s="8">
         <v>481</v>
@@ -24244,10 +24246,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C106" t="s">
         <v>2249</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2250</v>
       </c>
       <c r="D106" s="8">
         <v>482</v>
@@ -24258,10 +24260,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C107" t="s">
         <v>2251</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2252</v>
       </c>
       <c r="D107" s="8">
         <v>482</v>
@@ -24272,10 +24274,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C108" t="s">
         <v>2253</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2254</v>
       </c>
       <c r="D108" s="8">
         <v>482</v>
@@ -24286,10 +24288,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C109" t="s">
         <v>2255</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2256</v>
       </c>
       <c r="D109" s="8">
         <v>482</v>
@@ -24300,10 +24302,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C110" t="s">
         <v>2257</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2258</v>
       </c>
       <c r="D110" s="8">
         <v>482</v>
@@ -24314,10 +24316,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C111" t="s">
         <v>2259</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2260</v>
       </c>
       <c r="D111" s="8">
         <v>482</v>
@@ -24328,10 +24330,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C112" t="s">
         <v>2261</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2262</v>
       </c>
       <c r="D112" s="8">
         <v>482</v>
@@ -24342,10 +24344,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C113" t="s">
         <v>2263</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2264</v>
       </c>
       <c r="D113" s="8">
         <v>482</v>
@@ -24356,10 +24358,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C114" t="s">
         <v>2265</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2266</v>
       </c>
       <c r="D114" s="8">
         <v>482</v>
@@ -24370,10 +24372,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C115" t="s">
         <v>2267</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2268</v>
       </c>
       <c r="D115" s="8">
         <v>482</v>
@@ -24384,10 +24386,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C116" t="s">
         <v>2269</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2270</v>
       </c>
       <c r="D116" s="8">
         <v>482</v>
@@ -24398,10 +24400,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C117" t="s">
         <v>2271</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2272</v>
       </c>
       <c r="D117" s="8">
         <v>482</v>
@@ -24415,10 +24417,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C118" t="s">
         <v>2273</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2274</v>
       </c>
       <c r="D118" s="8">
         <v>486</v>
@@ -24429,10 +24431,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C119" t="s">
         <v>2275</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2276</v>
       </c>
       <c r="D119" s="8">
         <v>486</v>
@@ -24443,10 +24445,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C120" t="s">
         <v>2277</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2278</v>
       </c>
       <c r="D120" s="8">
         <v>487</v>
@@ -24460,10 +24462,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C121" t="s">
         <v>2279</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2280</v>
       </c>
       <c r="D121" s="8">
         <v>487</v>
@@ -24474,10 +24476,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C122" t="s">
         <v>2281</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2282</v>
       </c>
       <c r="D122" s="8">
         <v>487</v>
@@ -24488,10 +24490,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C123" t="s">
         <v>2283</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2284</v>
       </c>
       <c r="D123" s="8">
         <v>487</v>
@@ -24502,10 +24504,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C124" t="s">
         <v>2285</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2286</v>
       </c>
       <c r="D124" s="8">
         <v>487</v>
@@ -24516,10 +24518,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C125" t="s">
         <v>2287</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2288</v>
       </c>
       <c r="D125" s="8">
         <v>488</v>
@@ -24530,10 +24532,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C126" t="s">
         <v>2289</v>
-      </c>
-      <c r="C126" t="s">
-        <v>2290</v>
       </c>
       <c r="D126" s="8">
         <v>488</v>
@@ -24544,10 +24546,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C127" t="s">
         <v>2291</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2292</v>
       </c>
       <c r="D127" s="8">
         <v>488</v>
@@ -24558,10 +24560,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C128" t="s">
         <v>2293</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2294</v>
       </c>
       <c r="D128" s="8">
         <v>488</v>
@@ -24572,10 +24574,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C129" t="s">
         <v>2295</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2296</v>
       </c>
       <c r="D129" s="8">
         <v>489</v>
@@ -24586,10 +24588,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C130" t="s">
         <v>2297</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2298</v>
       </c>
       <c r="D130" s="8">
         <v>489</v>
@@ -24600,10 +24602,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C131" t="s">
         <v>2299</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2300</v>
       </c>
       <c r="D131" s="8">
         <v>489</v>
@@ -24614,10 +24616,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C132" t="s">
         <v>2301</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2302</v>
       </c>
       <c r="D132" s="8">
         <v>489</v>
@@ -24628,10 +24630,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C133" t="s">
         <v>2303</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2304</v>
       </c>
       <c r="D133" s="8">
         <v>489</v>
@@ -24642,10 +24644,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C134" t="s">
         <v>2305</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2306</v>
       </c>
       <c r="D134" s="8">
         <v>489</v>
@@ -24656,10 +24658,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C135" t="s">
         <v>2307</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2308</v>
       </c>
       <c r="D135" s="8">
         <v>489</v>
@@ -24670,10 +24672,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C136" t="s">
         <v>2309</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2310</v>
       </c>
       <c r="D136" s="8">
         <v>489</v>
@@ -24684,10 +24686,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C137" t="s">
         <v>2311</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2312</v>
       </c>
       <c r="D137" s="8">
         <v>489</v>
@@ -24698,10 +24700,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C138" t="s">
         <v>2313</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2314</v>
       </c>
       <c r="D138" s="8">
         <v>489</v>
@@ -24712,10 +24714,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C139" t="s">
         <v>2315</v>
-      </c>
-      <c r="C139" t="s">
-        <v>2316</v>
       </c>
       <c r="D139" s="8">
         <v>490</v>
@@ -24729,7 +24731,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C140" t="s">
         <v>882</v>
@@ -24743,10 +24745,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C141" t="s">
         <v>2318</v>
-      </c>
-      <c r="C141" t="s">
-        <v>2319</v>
       </c>
       <c r="D141" s="8">
         <v>523</v>
@@ -24757,10 +24759,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C142" t="s">
         <v>2320</v>
-      </c>
-      <c r="C142" t="s">
-        <v>2321</v>
       </c>
       <c r="D142" s="8">
         <v>523</v>
@@ -24771,10 +24773,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C143" t="s">
         <v>2322</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2323</v>
       </c>
       <c r="D143" s="8">
         <v>523</v>
@@ -24788,10 +24790,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C144" t="s">
         <v>2324</v>
-      </c>
-      <c r="C144" t="s">
-        <v>2325</v>
       </c>
       <c r="D144" s="8">
         <v>525</v>
@@ -24802,10 +24804,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C145" t="s">
         <v>2326</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2327</v>
       </c>
       <c r="D145" s="8">
         <v>525</v>
@@ -24816,10 +24818,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C146" t="s">
         <v>2328</v>
-      </c>
-      <c r="C146" t="s">
-        <v>2329</v>
       </c>
       <c r="D146" s="8">
         <v>525</v>
@@ -24830,10 +24832,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C147" t="s">
         <v>2330</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2331</v>
       </c>
       <c r="D147" s="8">
         <v>525</v>
@@ -24844,10 +24846,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C148" t="s">
         <v>2332</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2333</v>
       </c>
       <c r="D148" s="8">
         <v>525</v>
@@ -24858,10 +24860,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C149" t="s">
         <v>2334</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2335</v>
       </c>
       <c r="D149" s="8">
         <v>525</v>
@@ -24872,10 +24874,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C150" t="s">
         <v>2336</v>
-      </c>
-      <c r="C150" t="s">
-        <v>2337</v>
       </c>
       <c r="D150" s="8">
         <v>525</v>
@@ -24886,10 +24888,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C151" t="s">
         <v>2338</v>
-      </c>
-      <c r="C151" t="s">
-        <v>2339</v>
       </c>
       <c r="D151" s="8">
         <v>531</v>
@@ -24900,10 +24902,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C152" t="s">
         <v>2340</v>
-      </c>
-      <c r="C152" t="s">
-        <v>2341</v>
       </c>
       <c r="D152" s="8">
         <v>531</v>
@@ -24914,10 +24916,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C153" t="s">
         <v>2342</v>
-      </c>
-      <c r="C153" t="s">
-        <v>2343</v>
       </c>
       <c r="D153" s="8">
         <v>531</v>
@@ -24928,10 +24930,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C154" t="s">
         <v>2344</v>
-      </c>
-      <c r="C154" t="s">
-        <v>2345</v>
       </c>
       <c r="D154" s="8">
         <v>531</v>
@@ -24942,10 +24944,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C155" t="s">
         <v>2346</v>
-      </c>
-      <c r="C155" t="s">
-        <v>2347</v>
       </c>
       <c r="D155" s="8">
         <v>531</v>
@@ -24956,10 +24958,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C156" t="s">
         <v>2348</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2349</v>
       </c>
       <c r="D156" s="8">
         <v>531</v>
@@ -24970,10 +24972,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C157" t="s">
         <v>2350</v>
-      </c>
-      <c r="C157" t="s">
-        <v>2351</v>
       </c>
       <c r="D157" s="8">
         <v>531</v>
@@ -24984,10 +24986,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C158" t="s">
         <v>2352</v>
-      </c>
-      <c r="C158" t="s">
-        <v>2353</v>
       </c>
       <c r="D158" s="8">
         <v>531</v>
@@ -24998,10 +25000,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C159" t="s">
         <v>2354</v>
-      </c>
-      <c r="C159" t="s">
-        <v>2355</v>
       </c>
       <c r="D159" s="8">
         <v>531</v>
@@ -25012,10 +25014,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C160" t="s">
         <v>2356</v>
-      </c>
-      <c r="C160" t="s">
-        <v>2357</v>
       </c>
       <c r="D160" s="8">
         <v>531</v>
@@ -25026,10 +25028,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C161" t="s">
         <v>2358</v>
-      </c>
-      <c r="C161" t="s">
-        <v>2359</v>
       </c>
       <c r="D161" s="8">
         <v>532</v>
@@ -25040,10 +25042,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C162" t="s">
         <v>2360</v>
-      </c>
-      <c r="C162" t="s">
-        <v>2361</v>
       </c>
       <c r="D162" s="8">
         <v>532</v>
@@ -25054,10 +25056,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C163" t="s">
         <v>2362</v>
-      </c>
-      <c r="C163" t="s">
-        <v>2363</v>
       </c>
       <c r="D163" s="8">
         <v>532</v>
@@ -25068,10 +25070,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C164" t="s">
         <v>2364</v>
-      </c>
-      <c r="C164" t="s">
-        <v>2365</v>
       </c>
       <c r="D164" s="8">
         <v>533</v>
@@ -25085,10 +25087,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C165" t="s">
         <v>2366</v>
-      </c>
-      <c r="C165" t="s">
-        <v>2367</v>
       </c>
       <c r="D165" s="8">
         <v>533</v>
@@ -25102,10 +25104,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C166" t="s">
         <v>2368</v>
-      </c>
-      <c r="C166" t="s">
-        <v>2369</v>
       </c>
       <c r="D166" s="8">
         <v>535</v>
@@ -25116,10 +25118,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C167" t="s">
         <v>2370</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2371</v>
       </c>
       <c r="D167" s="8">
         <v>535</v>
@@ -25130,10 +25132,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C168" t="s">
         <v>2372</v>
-      </c>
-      <c r="C168" t="s">
-        <v>2373</v>
       </c>
       <c r="D168" s="8">
         <v>535</v>
@@ -25144,10 +25146,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C169" t="s">
         <v>2374</v>
-      </c>
-      <c r="C169" t="s">
-        <v>2375</v>
       </c>
       <c r="D169" s="8">
         <v>535</v>
@@ -25158,10 +25160,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C170" t="s">
         <v>2376</v>
-      </c>
-      <c r="C170" t="s">
-        <v>2377</v>
       </c>
       <c r="D170" s="8">
         <v>535</v>
@@ -25172,10 +25174,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C171" t="s">
         <v>2378</v>
-      </c>
-      <c r="C171" t="s">
-        <v>2379</v>
       </c>
       <c r="D171" s="8">
         <v>535</v>
@@ -25186,10 +25188,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C172" t="s">
         <v>2380</v>
-      </c>
-      <c r="C172" t="s">
-        <v>2381</v>
       </c>
       <c r="D172" s="8">
         <v>535</v>
@@ -25203,10 +25205,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C173" t="s">
         <v>2382</v>
-      </c>
-      <c r="C173" t="s">
-        <v>2383</v>
       </c>
       <c r="D173" s="8">
         <v>535</v>
@@ -25217,10 +25219,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C174" t="s">
         <v>2384</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2385</v>
       </c>
       <c r="D174" s="8">
         <v>535</v>
@@ -25231,10 +25233,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C175" t="s">
         <v>2386</v>
-      </c>
-      <c r="C175" t="s">
-        <v>2387</v>
       </c>
       <c r="D175" s="8">
         <v>536</v>
@@ -25245,10 +25247,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C176" t="s">
         <v>2388</v>
-      </c>
-      <c r="C176" t="s">
-        <v>2389</v>
       </c>
       <c r="D176" s="8">
         <v>536</v>
@@ -25259,10 +25261,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C177" t="s">
         <v>2390</v>
-      </c>
-      <c r="C177" t="s">
-        <v>2391</v>
       </c>
       <c r="D177" s="8">
         <v>536</v>
@@ -25273,10 +25275,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C178" t="s">
         <v>2392</v>
-      </c>
-      <c r="C178" t="s">
-        <v>2393</v>
       </c>
       <c r="D178" s="8">
         <v>536</v>
@@ -25287,10 +25289,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C179" t="s">
         <v>2394</v>
-      </c>
-      <c r="C179" t="s">
-        <v>2395</v>
       </c>
       <c r="D179" s="8">
         <v>546</v>
@@ -25304,10 +25306,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C180" t="s">
         <v>2396</v>
-      </c>
-      <c r="C180" t="s">
-        <v>2397</v>
       </c>
       <c r="D180" s="8">
         <v>547</v>
@@ -25318,10 +25320,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C181" t="s">
         <v>2398</v>
-      </c>
-      <c r="C181" t="s">
-        <v>2399</v>
       </c>
       <c r="D181" s="8">
         <v>547</v>
@@ -25332,10 +25334,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C182" t="s">
         <v>2400</v>
-      </c>
-      <c r="C182" t="s">
-        <v>2401</v>
       </c>
       <c r="D182" s="8">
         <v>547</v>
@@ -25346,10 +25348,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C183" t="s">
         <v>2402</v>
-      </c>
-      <c r="C183" t="s">
-        <v>2403</v>
       </c>
       <c r="D183" s="8">
         <v>547</v>
@@ -25360,10 +25362,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C184" t="s">
         <v>2404</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2405</v>
       </c>
       <c r="D184" s="8">
         <v>547</v>
@@ -25374,10 +25376,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C185" t="s">
         <v>2406</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2407</v>
       </c>
       <c r="D185" s="8">
         <v>547</v>
@@ -25388,10 +25390,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C186" t="s">
         <v>2408</v>
-      </c>
-      <c r="C186" t="s">
-        <v>2409</v>
       </c>
       <c r="D186" s="8">
         <v>547</v>
@@ -25402,10 +25404,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C187" t="s">
         <v>2410</v>
-      </c>
-      <c r="C187" t="s">
-        <v>2411</v>
       </c>
       <c r="D187" s="8">
         <v>547</v>
@@ -25416,10 +25418,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C188" t="s">
         <v>2412</v>
-      </c>
-      <c r="C188" t="s">
-        <v>2413</v>
       </c>
       <c r="D188" s="8">
         <v>547</v>
@@ -25430,10 +25432,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C189" t="s">
         <v>2414</v>
-      </c>
-      <c r="C189" t="s">
-        <v>2415</v>
       </c>
       <c r="D189" s="8">
         <v>547</v>
@@ -25444,10 +25446,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C190" t="s">
         <v>2416</v>
-      </c>
-      <c r="C190" t="s">
-        <v>2417</v>
       </c>
       <c r="D190" s="8">
         <v>547</v>
@@ -25458,10 +25460,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C191" t="s">
         <v>2418</v>
-      </c>
-      <c r="C191" t="s">
-        <v>2419</v>
       </c>
       <c r="D191" s="8">
         <v>547</v>
@@ -25472,10 +25474,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C192" t="s">
         <v>2420</v>
-      </c>
-      <c r="C192" t="s">
-        <v>2421</v>
       </c>
       <c r="D192" s="8">
         <v>547</v>
@@ -25486,10 +25488,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C193" t="s">
         <v>2422</v>
-      </c>
-      <c r="C193" t="s">
-        <v>2423</v>
       </c>
       <c r="D193" s="8">
         <v>547</v>
@@ -25500,10 +25502,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C194" t="s">
         <v>2424</v>
-      </c>
-      <c r="C194" t="s">
-        <v>2425</v>
       </c>
       <c r="D194" s="8">
         <v>548</v>
@@ -25514,10 +25516,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C195" t="s">
         <v>2426</v>
-      </c>
-      <c r="C195" t="s">
-        <v>2427</v>
       </c>
       <c r="D195" s="8">
         <v>548</v>
@@ -25531,10 +25533,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C196" t="s">
         <v>2428</v>
-      </c>
-      <c r="C196" t="s">
-        <v>2429</v>
       </c>
       <c r="D196" s="8">
         <v>548</v>
@@ -25545,10 +25547,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C197" t="s">
         <v>2430</v>
-      </c>
-      <c r="C197" t="s">
-        <v>2431</v>
       </c>
       <c r="D197" s="8">
         <v>548</v>
@@ -25559,10 +25561,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C198" t="s">
         <v>2432</v>
-      </c>
-      <c r="C198" t="s">
-        <v>2433</v>
       </c>
       <c r="D198" s="8">
         <v>548</v>
@@ -25573,10 +25575,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C199" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D199" s="8">
         <v>551</v>
@@ -25587,10 +25589,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C200" t="s">
         <v>2435</v>
-      </c>
-      <c r="C200" t="s">
-        <v>2436</v>
       </c>
       <c r="D200" s="8">
         <v>551</v>
@@ -25601,10 +25603,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C201" t="s">
         <v>2437</v>
-      </c>
-      <c r="C201" t="s">
-        <v>2438</v>
       </c>
       <c r="D201" s="8">
         <v>551</v>
@@ -25618,10 +25620,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C202" t="s">
         <v>2439</v>
-      </c>
-      <c r="C202" t="s">
-        <v>2440</v>
       </c>
       <c r="D202" s="8">
         <v>552</v>
@@ -25632,10 +25634,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C203" t="s">
         <v>2441</v>
-      </c>
-      <c r="C203" t="s">
-        <v>2442</v>
       </c>
       <c r="D203" s="8">
         <v>552</v>
@@ -25646,10 +25648,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C204" t="s">
         <v>2443</v>
-      </c>
-      <c r="C204" t="s">
-        <v>2444</v>
       </c>
       <c r="D204" s="8">
         <v>552</v>
@@ -25660,10 +25662,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C205" t="s">
         <v>2445</v>
-      </c>
-      <c r="C205" t="s">
-        <v>2446</v>
       </c>
       <c r="D205" s="8">
         <v>552</v>
@@ -25674,10 +25676,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C206" t="s">
         <v>2447</v>
-      </c>
-      <c r="C206" t="s">
-        <v>2448</v>
       </c>
       <c r="D206" s="8">
         <v>552</v>
@@ -25688,10 +25690,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C207" t="s">
         <v>2449</v>
-      </c>
-      <c r="C207" t="s">
-        <v>2450</v>
       </c>
       <c r="D207" s="8">
         <v>552</v>
@@ -25702,10 +25704,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C208" t="s">
         <v>2451</v>
-      </c>
-      <c r="C208" t="s">
-        <v>2452</v>
       </c>
       <c r="D208" s="8">
         <v>555</v>
@@ -25716,10 +25718,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C209" t="s">
         <v>2453</v>
-      </c>
-      <c r="C209" t="s">
-        <v>2454</v>
       </c>
       <c r="D209" s="8">
         <v>555</v>
@@ -25730,10 +25732,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C210" t="s">
         <v>2455</v>
-      </c>
-      <c r="C210" t="s">
-        <v>2456</v>
       </c>
       <c r="D210" s="8">
         <v>556</v>
@@ -25744,10 +25746,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C211" t="s">
         <v>2457</v>
-      </c>
-      <c r="C211" t="s">
-        <v>2458</v>
       </c>
       <c r="D211" s="8">
         <v>556</v>
@@ -25758,10 +25760,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C212" t="s">
         <v>2459</v>
-      </c>
-      <c r="C212" t="s">
-        <v>2460</v>
       </c>
       <c r="D212" s="8">
         <v>556</v>
@@ -25772,10 +25774,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C213" t="s">
         <v>2461</v>
-      </c>
-      <c r="C213" t="s">
-        <v>2462</v>
       </c>
       <c r="D213" s="8">
         <v>556</v>
@@ -25786,10 +25788,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C214" t="s">
         <v>2463</v>
-      </c>
-      <c r="C214" t="s">
-        <v>2464</v>
       </c>
       <c r="D214" s="8">
         <v>556</v>
@@ -25800,10 +25802,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C215" t="s">
         <v>2465</v>
-      </c>
-      <c r="C215" t="s">
-        <v>2466</v>
       </c>
       <c r="D215" s="8">
         <v>556</v>
@@ -25814,10 +25816,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C216" t="s">
         <v>2467</v>
-      </c>
-      <c r="C216" t="s">
-        <v>2468</v>
       </c>
       <c r="D216" s="8">
         <v>556</v>
@@ -25828,10 +25830,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C217" t="s">
         <v>2469</v>
-      </c>
-      <c r="C217" t="s">
-        <v>2470</v>
       </c>
       <c r="D217" s="8">
         <v>557</v>
@@ -25842,10 +25844,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C218" t="s">
         <v>2471</v>
-      </c>
-      <c r="C218" t="s">
-        <v>2472</v>
       </c>
       <c r="D218" s="8">
         <v>557</v>
@@ -25856,10 +25858,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C219" t="s">
         <v>2473</v>
-      </c>
-      <c r="C219" t="s">
-        <v>2474</v>
       </c>
       <c r="D219" s="8">
         <v>559</v>
@@ -25870,10 +25872,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C220" t="s">
         <v>2475</v>
-      </c>
-      <c r="C220" t="s">
-        <v>2476</v>
       </c>
       <c r="D220" s="8">
         <v>559</v>
@@ -25887,10 +25889,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C221" t="s">
         <v>2477</v>
-      </c>
-      <c r="C221" t="s">
-        <v>2478</v>
       </c>
       <c r="D221" s="8">
         <v>560</v>
@@ -25901,10 +25903,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C222" t="s">
         <v>2479</v>
-      </c>
-      <c r="C222" t="s">
-        <v>2480</v>
       </c>
       <c r="D222" s="8">
         <v>560</v>
@@ -25915,10 +25917,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C223" t="s">
         <v>2481</v>
-      </c>
-      <c r="C223" t="s">
-        <v>2482</v>
       </c>
       <c r="D223" s="8">
         <v>560</v>
@@ -25929,10 +25931,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C224" t="s">
         <v>2483</v>
-      </c>
-      <c r="C224" t="s">
-        <v>2484</v>
       </c>
       <c r="D224" s="8">
         <v>560</v>
@@ -25943,10 +25945,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C225" t="s">
         <v>2485</v>
-      </c>
-      <c r="C225" t="s">
-        <v>2486</v>
       </c>
       <c r="D225" s="8">
         <v>560</v>
@@ -25957,10 +25959,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C226" t="s">
         <v>2487</v>
-      </c>
-      <c r="C226" t="s">
-        <v>2488</v>
       </c>
       <c r="D226" s="8">
         <v>560</v>
@@ -25971,10 +25973,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C227" t="s">
         <v>2489</v>
-      </c>
-      <c r="C227" t="s">
-        <v>2490</v>
       </c>
       <c r="D227" s="8">
         <v>560</v>
@@ -25985,10 +25987,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C228" t="s">
         <v>2491</v>
-      </c>
-      <c r="C228" t="s">
-        <v>2492</v>
       </c>
       <c r="D228" s="8">
         <v>560</v>
@@ -25999,10 +26001,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C229" t="s">
         <v>2493</v>
-      </c>
-      <c r="C229" t="s">
-        <v>2494</v>
       </c>
       <c r="D229" s="8">
         <v>560</v>
@@ -26013,10 +26015,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C230" t="s">
         <v>2495</v>
-      </c>
-      <c r="C230" t="s">
-        <v>2496</v>
       </c>
       <c r="D230" s="8">
         <v>560</v>
@@ -26027,10 +26029,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C231" t="s">
         <v>2497</v>
-      </c>
-      <c r="C231" t="s">
-        <v>2498</v>
       </c>
       <c r="D231" s="8">
         <v>560</v>
@@ -26041,10 +26043,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C232" t="s">
         <v>2499</v>
-      </c>
-      <c r="C232" t="s">
-        <v>2500</v>
       </c>
       <c r="D232" s="8">
         <v>560</v>
@@ -26055,10 +26057,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C233" t="s">
         <v>2501</v>
-      </c>
-      <c r="C233" t="s">
-        <v>2502</v>
       </c>
       <c r="D233" s="8">
         <v>560</v>
@@ -26069,10 +26071,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C234" t="s">
         <v>2503</v>
-      </c>
-      <c r="C234" t="s">
-        <v>2504</v>
       </c>
       <c r="D234" s="8">
         <v>561</v>
@@ -26083,10 +26085,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C235" t="s">
         <v>2505</v>
-      </c>
-      <c r="C235" t="s">
-        <v>2506</v>
       </c>
       <c r="D235" s="8">
         <v>561</v>
@@ -26097,10 +26099,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C236" t="s">
         <v>2507</v>
-      </c>
-      <c r="C236" t="s">
-        <v>2508</v>
       </c>
       <c r="D236" s="8">
         <v>562</v>
@@ -26111,10 +26113,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C237" t="s">
         <v>2509</v>
-      </c>
-      <c r="C237" t="s">
-        <v>2510</v>
       </c>
       <c r="D237" s="8">
         <v>562</v>
@@ -26125,10 +26127,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C238" t="s">
         <v>2511</v>
-      </c>
-      <c r="C238" t="s">
-        <v>2512</v>
       </c>
       <c r="D238" s="8">
         <v>563</v>
@@ -26139,10 +26141,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C239" t="s">
         <v>2513</v>
-      </c>
-      <c r="C239" t="s">
-        <v>2514</v>
       </c>
       <c r="D239" s="8">
         <v>563</v>
@@ -26153,10 +26155,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C240" t="s">
         <v>2515</v>
-      </c>
-      <c r="C240" t="s">
-        <v>2516</v>
       </c>
       <c r="D240" s="8">
         <v>563</v>
@@ -26167,10 +26169,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C241" t="s">
         <v>2517</v>
-      </c>
-      <c r="C241" t="s">
-        <v>2518</v>
       </c>
       <c r="D241" s="8">
         <v>563</v>
@@ -26181,10 +26183,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C242" t="s">
         <v>2519</v>
-      </c>
-      <c r="C242" t="s">
-        <v>2520</v>
       </c>
       <c r="D242" s="8">
         <v>563</v>
@@ -26195,10 +26197,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C243" t="s">
         <v>2521</v>
-      </c>
-      <c r="C243" t="s">
-        <v>2522</v>
       </c>
       <c r="D243" s="8">
         <v>563</v>
@@ -26209,10 +26211,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C244" t="s">
         <v>2523</v>
-      </c>
-      <c r="C244" t="s">
-        <v>2524</v>
       </c>
       <c r="D244" s="8">
         <v>563</v>
@@ -26223,10 +26225,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C245" t="s">
         <v>2525</v>
-      </c>
-      <c r="C245" t="s">
-        <v>2526</v>
       </c>
       <c r="D245" s="8">
         <v>563</v>
@@ -26237,10 +26239,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C246" t="s">
         <v>2527</v>
-      </c>
-      <c r="C246" t="s">
-        <v>2528</v>
       </c>
       <c r="D246" s="8">
         <v>563</v>
@@ -26251,10 +26253,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C247" t="s">
         <v>2529</v>
-      </c>
-      <c r="C247" t="s">
-        <v>2530</v>
       </c>
       <c r="D247" s="8">
         <v>564</v>
@@ -26265,10 +26267,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C248" t="s">
         <v>2531</v>
-      </c>
-      <c r="C248" t="s">
-        <v>2532</v>
       </c>
       <c r="D248" s="8">
         <v>564</v>
@@ -26279,10 +26281,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C249" t="s">
         <v>2533</v>
-      </c>
-      <c r="C249" t="s">
-        <v>2534</v>
       </c>
       <c r="D249" s="8">
         <v>564</v>
@@ -26293,10 +26295,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C250" t="s">
         <v>2535</v>
-      </c>
-      <c r="C250" t="s">
-        <v>2536</v>
       </c>
       <c r="D250" s="8">
         <v>564</v>
@@ -26307,10 +26309,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C251" t="s">
         <v>2537</v>
-      </c>
-      <c r="C251" t="s">
-        <v>2538</v>
       </c>
       <c r="D251" s="8">
         <v>564</v>
@@ -26321,10 +26323,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C252" t="s">
         <v>2539</v>
-      </c>
-      <c r="C252" t="s">
-        <v>2540</v>
       </c>
       <c r="D252" s="8">
         <v>564</v>
@@ -26335,10 +26337,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C253" t="s">
         <v>2541</v>
-      </c>
-      <c r="C253" t="s">
-        <v>2542</v>
       </c>
       <c r="D253" s="8">
         <v>564</v>
@@ -26349,10 +26351,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C254" t="s">
         <v>2543</v>
-      </c>
-      <c r="C254" t="s">
-        <v>2544</v>
       </c>
       <c r="D254" s="8">
         <v>566</v>
@@ -26363,7 +26365,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C255" t="s">
         <v>882</v>
@@ -26380,10 +26382,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C256" t="s">
         <v>2546</v>
-      </c>
-      <c r="C256" t="s">
-        <v>2547</v>
       </c>
       <c r="D256" s="8">
         <v>569</v>
@@ -26394,10 +26396,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C257" t="s">
         <v>2548</v>
-      </c>
-      <c r="C257" t="s">
-        <v>2549</v>
       </c>
       <c r="D257" s="8">
         <v>569</v>
@@ -26408,55 +26410,52 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C258" t="s">
         <v>2550</v>
-      </c>
-      <c r="C258" t="s">
-        <v>2551</v>
       </c>
       <c r="D258" s="8">
         <v>569</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>2552</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>2553</v>
       </c>
       <c r="D259" s="8">
         <v>570</v>
       </c>
-      <c r="I259" s="6" t="s">
+      <c r="I259" s="10" t="s">
         <v>2569</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
-        <v>2554</v>
-      </c>
       <c r="C260" s="6" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="D260" s="8">
         <v>570</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I260" s="9" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
-        <v>2556</v>
-      </c>
       <c r="C261" s="6" t="s">
-        <v>1003</v>
+        <v>2566</v>
       </c>
       <c r="D261" s="8">
         <v>577</v>
@@ -26464,7 +26463,7 @@
       <c r="E261" t="s">
         <v>22</v>
       </c>
-      <c r="I261" t="s">
+      <c r="I261" s="9" t="s">
         <v>2568</v>
       </c>
     </row>
@@ -26472,11 +26471,8 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>2557</v>
-      </c>
       <c r="C262" s="6" t="s">
-        <v>1003</v>
+        <v>2567</v>
       </c>
       <c r="D262" s="8">
         <v>592</v>
@@ -26486,11 +26482,8 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
-        <v>2558</v>
-      </c>
       <c r="C263" s="6" t="s">
-        <v>2559</v>
+        <v>2554</v>
       </c>
       <c r="D263" s="8">
         <v>600</v>
@@ -26501,10 +26494,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>2560</v>
+        <v>2555</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>2566</v>
+        <v>2561</v>
       </c>
       <c r="D264" s="8">
         <v>600</v>
@@ -26515,10 +26508,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
       <c r="D265" s="8">
         <v>604</v>
@@ -26529,10 +26522,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>2567</v>
+        <v>2562</v>
       </c>
       <c r="D266" s="8">
         <v>604</v>
@@ -26543,10 +26536,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>2564</v>
+        <v>2559</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="D267" s="8">
         <v>610</v>

--- a/production/eb07/eb07-entries-s.xlsx
+++ b/production/eb07/eb07-entries-s.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp-corpus1\production\eb07\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6378872C-0798-44E9-AA76-C4609AE2D1B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="345" windowWidth="21930" windowHeight="16740" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="1650" windowWidth="16545" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eb07-s01" sheetId="1" r:id="rId1"/>
@@ -33,8 +34,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Entry_Stats" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Entry_Stats" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s01\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -45,7 +46,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Entry_Stats1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Entry_Stats1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s02\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -56,7 +57,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Entry_Stats2" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Entry_Stats2" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s03\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -67,7 +68,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="Entry_Stats3" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Entry_Stats3" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s04\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="2570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="2568">
   <si>
     <t>eb07-19-s01-0594-01.xml</t>
   </si>
@@ -7749,18 +7750,9 @@
     <t>SECTION IV</t>
   </si>
   <si>
-    <t>eb07-20-s04-0600-02.xml</t>
-  </si>
-  <si>
-    <t>eb07-20-s04-0604-01.xml</t>
-  </si>
-  <si>
     <t>SECTION V</t>
   </si>
   <si>
-    <t>eb07-20-s04-0604-02.xml</t>
-  </si>
-  <si>
     <t>eb07-20-s04-0610-01.xml</t>
   </si>
   <si>
@@ -7788,16 +7780,19 @@
     <t>SECT III</t>
   </si>
   <si>
-    <t xml:space="preserve">table with multiple references to same note is corrected. Other tables need attention. Tables with uncoded notes are corrected on p. 590, 591. Text corrected on 591. Repaired tables on 592, 594, 597, 598, 600, 601. Math symbols need correcting on 594. </t>
-  </si>
-  <si>
-    <t>STEAM article sections moved into main article.</t>
+    <t xml:space="preserve">table with multiple references to same note is corrected. Other tables need attention. Tables with uncoded notes are corrected on p. 590, 591. Text corrected on 591. Repaired tables on 592, 594, 597, 598, 600, 601, 604. Math symbols need correcting on 594. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEAM article sections moved into main article, through SECTION V. </t>
+  </si>
+  <si>
+    <t>Heading corrected. Fix table on 639.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -7927,19 +7922,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats_1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8204,7 +8199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14722,7 +14717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14806,7 +14801,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -19816,7 +19811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22726,11 +22721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="I259" sqref="I259"/>
+    <sheetView tabSelected="1" topLeftCell="C248" workbookViewId="0">
+      <selection activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22790,7 +22785,7 @@
         <v>43595</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -26433,7 +26428,7 @@
         <v>570</v>
       </c>
       <c r="I259" s="10" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -26447,7 +26442,7 @@
         <v>570</v>
       </c>
       <c r="I260" s="9" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -26455,7 +26450,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="D261" s="8">
         <v>577</v>
@@ -26464,7 +26459,7 @@
         <v>22</v>
       </c>
       <c r="I261" s="9" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -26472,7 +26467,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="D262" s="8">
         <v>592</v>
@@ -26493,11 +26488,8 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
-        <v>2555</v>
-      </c>
       <c r="C264" s="6" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="D264" s="8">
         <v>600</v>
@@ -26507,11 +26499,8 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
-        <v>2556</v>
-      </c>
       <c r="C265" s="6" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="D265" s="8">
         <v>604</v>
@@ -26521,11 +26510,8 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
-        <v>2558</v>
-      </c>
       <c r="C266" s="6" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="D266" s="8">
         <v>604</v>
@@ -26536,16 +26522,19 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="D267" s="8">
         <v>610</v>
       </c>
       <c r="E267" t="s">
         <v>22</v>
+      </c>
+      <c r="I267" s="9" t="s">
+        <v>2567</v>
       </c>
     </row>
   </sheetData>

--- a/production/eb07/eb07-entries-s.xlsx
+++ b/production/eb07/eb07-entries-s.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp-corpus1\production\eb07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6378872C-0798-44E9-AA76-C4609AE2D1B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1650" windowWidth="16545" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1650" windowWidth="16545" windowHeight="15435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="eb07-s01" sheetId="1" r:id="rId1"/>
@@ -34,8 +33,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Entry_Stats" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Entry_Stats" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s01\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -46,7 +45,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Entry_Stats1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" name="Entry_Stats1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s02\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -57,7 +56,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Entry_Stats2" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="Entry_Stats2" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s03\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -68,7 +67,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Entry_Stats3" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="Entry_Stats3" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="Z:\eb-corpus\digital-edition\xml\eb07\s04\Entry_Stats.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="2568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="2569">
   <si>
     <t>eb07-19-s01-0594-01.xml</t>
   </si>
@@ -7783,16 +7782,19 @@
     <t xml:space="preserve">table with multiple references to same note is corrected. Other tables need attention. Tables with uncoded notes are corrected on p. 590, 591. Text corrected on 591. Repaired tables on 592, 594, 597, 598, 600, 601, 604. Math symbols need correcting on 594. </t>
   </si>
   <si>
-    <t xml:space="preserve">STEAM article sections moved into main article, through SECTION V. </t>
-  </si>
-  <si>
-    <t>Heading corrected. Fix table on 639.</t>
+    <t xml:space="preserve">STEAM article: 7 sections moved into main article; files deleted. </t>
+  </si>
+  <si>
+    <t>moved to STEAM</t>
+  </si>
+  <si>
+    <t>Heading corrected. Fix table on 639; table runs over 644-45 (fixed); Added unscanned text on 655. Partial entry ends in middle of &lt;div&gt; for section "Part II-Description of The Modern Steam Engine", which continues to end.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -7882,7 +7884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7904,6 +7906,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7922,19 +7925,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats_1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Entry_Stats_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Entry_Stats_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8199,7 +8202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14717,7 +14720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19811,7 +19814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22721,10 +22724,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C248" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
       <selection activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
@@ -26472,6 +26475,9 @@
       <c r="D262" s="8">
         <v>592</v>
       </c>
+      <c r="I262" s="9" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
@@ -26483,6 +26489,9 @@
       <c r="D263" s="8">
         <v>600</v>
       </c>
+      <c r="I263" s="9" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -26494,6 +26503,9 @@
       <c r="D264" s="8">
         <v>600</v>
       </c>
+      <c r="I264" s="9" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
@@ -26505,6 +26517,9 @@
       <c r="D265" s="8">
         <v>604</v>
       </c>
+      <c r="I265" s="9" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
@@ -26516,15 +26531,18 @@
       <c r="D266" s="8">
         <v>604</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I266" s="9" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>2556</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C267" s="11" t="s">
         <v>2557</v>
       </c>
       <c r="D267" s="8">
@@ -26534,7 +26552,7 @@
         <v>22</v>
       </c>
       <c r="I267" s="9" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
   </sheetData>
